--- a/Il-2_FMsParameters_WIP.xlsx
+++ b/Il-2_FMsParameters_WIP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="20115" windowHeight="8190"/>
+    <workbookView xWindow="600" yWindow="210" windowWidth="20115" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=".fmd" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="890">
   <si>
     <t>[Aircraft]</t>
   </si>
@@ -98,12 +98,6 @@
     <t>Seaplane</t>
   </si>
   <si>
-    <t>0..................if</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -308,64 +302,13 @@
     <t>conversion.</t>
   </si>
   <si>
-    <t>[Controls]..........................Most</t>
-  </si>
-  <si>
-    <t>controls</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
     <t>toggles</t>
   </si>
   <si>
-    <t>functionality</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
     <t>or</t>
   </si>
   <si>
-    <t>off.</t>
-  </si>
-  <si>
-    <t>on,</t>
-  </si>
-  <si>
-    <t>If</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>setting</t>
-  </si>
-  <si>
-    <t>wrong,</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>impossible</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>(freezes</t>
-  </si>
-  <si>
     <t>above</t>
-  </si>
-  <si>
-    <t>ground)</t>
   </si>
   <si>
     <t>CAileron</t>
@@ -1942,30 +1885,6 @@
   </si>
   <si>
     <t>Comments:</t>
-  </si>
-  <si>
-    <t>Stock: Scheme0.class</t>
-  </si>
-  <si>
-    <t>Stock: Scheme1.class</t>
-  </si>
-  <si>
-    <t>Stock: Scheme2.class</t>
-  </si>
-  <si>
-    <t>Stock: Scheme3.class</t>
-  </si>
-  <si>
-    <t>Stock: Scheme4.class</t>
-  </si>
-  <si>
-    <t>Stock: Scheme5.class</t>
-  </si>
-  <si>
-    <t>Stock: Scheme6.class</t>
-  </si>
-  <si>
-    <t>Stock: Scheme7.class</t>
   </si>
   <si>
     <t>Total Wingspan</t>
@@ -2447,9 +2366,6 @@
     <t>Related to Scheme Java classes (different features and Wingspan / Length calculations)</t>
   </si>
   <si>
-    <t>What is the Physical Structure of the Aircraft</t>
-  </si>
-  <si>
     <t>CFlapStageText</t>
   </si>
   <si>
@@ -2501,12 +2417,570 @@
   <si>
     <t>FM.CT.bHasFlapsControlRed if &lt; 2 (EngineMOD) or &lt; 3 (Stock)</t>
   </si>
+  <si>
+    <t>Wing dihedral in Degrees</t>
+  </si>
+  <si>
+    <t>Lift without flaps</t>
+  </si>
+  <si>
+    <t>Type of carburetor  </t>
+  </si>
+  <si>
+    <t>Injector</t>
+  </si>
+  <si>
+    <t>Float Carburetor</t>
+  </si>
+  <si>
+    <t>Suction</t>
+  </si>
+  <si>
+    <t>Radial</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Tow</t>
+  </si>
+  <si>
+    <t>PVRD</t>
+  </si>
+  <si>
+    <t>_E_TYPE_INLINE = 0;</t>
+  </si>
+  <si>
+    <t>_E_TYPE_RADIAL = 1;</t>
+  </si>
+  <si>
+    <t>_E_TYPE_JET = 2;</t>
+  </si>
+  <si>
+    <t>_E_TYPE_ROCKET = 3;</t>
+  </si>
+  <si>
+    <t>_E_TYPE_ROCKETBOOST = 4;</t>
+  </si>
+  <si>
+    <t>_E_TYPE_TOW = 5;</t>
+  </si>
+  <si>
+    <t>_E_TYPE_PVRD = 6;</t>
+  </si>
+  <si>
+    <t>_E_TYPE_HELO_INLINE = 7;</t>
+  </si>
+  <si>
+    <t>_E_TYPE_UNIDENTIFIED = 8;</t>
+  </si>
+  <si>
+    <t>Type of Engine</t>
+  </si>
+  <si>
+    <t>8 values in Motor Class</t>
+  </si>
+  <si>
+    <t>HeloI</t>
+  </si>
+  <si>
+    <t>RocketBoost</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>2 values in Motor Class</t>
+  </si>
+  <si>
+    <t>_E_PROP_DIR_LEFT = 0;</t>
+  </si>
+  <si>
+    <t>_E_PROP_DIR_RIGHT = 1;</t>
+  </si>
+  <si>
+    <t>HorsePowers</t>
+  </si>
+  <si>
+    <t>Thrust</t>
+  </si>
+  <si>
+    <t>BoostFactor</t>
+  </si>
+  <si>
+    <t>WEPBoostFactor</t>
+  </si>
+  <si>
+    <t>Piston (used "HorsePowers", "Carburetor" and "Mass")</t>
+  </si>
+  <si>
+    <t>non-Piston (used "Thrust")</t>
+  </si>
+  <si>
+    <r>
+      <t>Unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure</t>
+    </r>
+  </si>
+  <si>
+    <t>PropDiameter</t>
+  </si>
+  <si>
+    <t>PropAnglerType</t>
+  </si>
+  <si>
+    <t>Propeller Angler Type</t>
+  </si>
+  <si>
+    <t>PropAnglerSpeed</t>
+  </si>
+  <si>
+    <t>PropAnglerMinParam</t>
+  </si>
+  <si>
+    <t>PropAnglerMaxParam</t>
+  </si>
+  <si>
+    <t>_E_CARB_SUCTION = 0;</t>
+  </si>
+  <si>
+    <t>_E_CARB_CARBURETOR = 1;</t>
+  </si>
+  <si>
+    <t>_E_CARB_INJECTOR = 2;</t>
+  </si>
+  <si>
+    <t>_E_CARB_FLOAT = 3;</t>
+  </si>
+  <si>
+    <t>_E_CARB_SHILLING = 4;</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Shilling</t>
+  </si>
+  <si>
+    <t>_E_PROP_RETAIN_RPM_1 = 1;</t>
+  </si>
+  <si>
+    <t>_E_PROP_RETAIN_RPM_2 = 2;</t>
+  </si>
+  <si>
+    <t>_E_PROP_RETAIN_AOA_1 = 3;</t>
+  </si>
+  <si>
+    <t>_E_PROP_RETAIN_AOA_2 = 4;</t>
+  </si>
+  <si>
+    <t>_E_PROP_FRICTION = 5;</t>
+  </si>
+  <si>
+    <t>_E_PROP_MANUALDRIVEN = 6;</t>
+  </si>
+  <si>
+    <t>_E_PROP_WM_KOMANDGERAT = 7;</t>
+  </si>
+  <si>
+    <t>_E_PROP_FW_KOMANDGERAT = 8;</t>
+  </si>
+  <si>
+    <t>_E_PROP_CSP_EL = 9;</t>
+  </si>
+  <si>
+    <t>_E_PROP_FIXED = 0;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[0,1,2,3,4,5,6,7,8,9] </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <t>Capacity of the engine to start autonomously in air</t>
+  </si>
+  <si>
+    <t>Typically 1 (in most of the engines)</t>
+  </si>
+  <si>
+    <t>Fixed Pitch</t>
+  </si>
+  <si>
+    <t>Manually Controlled</t>
+  </si>
+  <si>
+    <t>Number of active cilinders (used in Jets too)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[0,1,2,3,4] </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <t>5 values in Motor Class</t>
+  </si>
+  <si>
+    <t>10 values in Motor Class</t>
+  </si>
+  <si>
+    <t>Propeller Mass in Kg</t>
+  </si>
+  <si>
+    <t>Propeller Diameter in m</t>
+  </si>
+  <si>
+    <t>How fast RPMs are increased when throttle is opened</t>
+  </si>
+  <si>
+    <t>_E_COMPRESSOR_NONE = 0;</t>
+  </si>
+  <si>
+    <t>_E_COMPRESSOR_MANUALSTEP = 1;</t>
+  </si>
+  <si>
+    <t>_E_COMPRESSOR_WM_KOMANDGERAT = 2;</t>
+  </si>
+  <si>
+    <t>_E_COMPRESSOR_TURBO = 3;</t>
+  </si>
+  <si>
+    <t>_E_STAGE_NULL = 0;</t>
+  </si>
+  <si>
+    <t>_E_STAGE_WAKE_UP = 1;</t>
+  </si>
+  <si>
+    <t>_E_STAGE_STARTER_ROLL = 2;</t>
+  </si>
+  <si>
+    <t>_E_STAGE_CATCH_UP = 3;</t>
+  </si>
+  <si>
+    <t>_E_STAGE_CATCH_ROLL = 4;</t>
+  </si>
+  <si>
+    <t>_E_STAGE_CATCH_FIRE = 5;</t>
+  </si>
+  <si>
+    <t>_E_STAGE_NOMINAL = 6;</t>
+  </si>
+  <si>
+    <t>_E_STAGE_DEAD = 7;</t>
+  </si>
+  <si>
+    <t>_E_STAGE_STUCK = 8;</t>
+  </si>
+  <si>
+    <t>_E_MIXER_GENERIC = 0;</t>
+  </si>
+  <si>
+    <t>_E_MIXER_BRIT_FULLAUTO = 1;</t>
+  </si>
+  <si>
+    <t>_E_MIXER_LIMITED_PRESSURE = 2;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_GENERIC = 0;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_MW50 = 1;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_GM1 = 2;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_FIRECHAMBER = 3;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_WATER = 4;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_NO2 = 5;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_FUEL_INJECTION = 6;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_FUEL_ILA5 = 7;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_FUEL_ILA5AUTO = 8;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_WATERMETHANOL = 9;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_P51 = 10;</t>
+  </si>
+  <si>
+    <t>_E_AFTERBURNER_SPIT = 11;</t>
+  </si>
+  <si>
+    <t>Type of Afterburner</t>
+  </si>
+  <si>
+    <t>Type of Compressor</t>
+  </si>
+  <si>
+    <r>
+      <t>[0,1]</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int</t>
+    </r>
+  </si>
+  <si>
+    <t>Has or not Fire Extinguishers</t>
+  </si>
+  <si>
+    <t>Number of Compressor Steps</t>
+  </si>
+  <si>
+    <t>Mixer Type</t>
+  </si>
+  <si>
+    <t>Normally 1, 2 or 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting pressure of the compressure in atmosphere?? </t>
+  </si>
+  <si>
+    <t>CompressorPAt0</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>Upper limit of good performance of the mixer </t>
+  </si>
+  <si>
+    <t>Max (critical)water temp </t>
+  </si>
+  <si>
+    <t>Minimum (critical) water temperature to rev up the engine</t>
+  </si>
+  <si>
+    <t>Max (critical) oil temperature</t>
+  </si>
+  <si>
+    <t>Minimum (critical)Oil temperature to rev up engine</t>
+  </si>
+  <si>
+    <t>Name of the sound (.prs) file</t>
+  </si>
+  <si>
+    <t>Name of the Start/Stop part in the .prs</t>
+  </si>
+  <si>
+    <t>Name of the Propeller part in the .prs</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>For Jets: Thrust delivered by the Engine
+If used, HorsePowers is set to 0.0 (or 1.0)</t>
+  </si>
+  <si>
+    <t>For Piston Engines: HPs delivered by the Engine</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Reductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engine rpm * reductor = prop rpm....also this serves as prop efficiency coeficient..engine hp * reductor = hp at the prop
+                so, you can have more HP at the propeller with something like 0.80 or 0.90.... for example, engine can have 1000 hp and propeller 1100 hp with a little prop and reductor like 0.8 or other. 
+                Don't confuse rotation speed and efficiency that is only a side effect </t>
+  </si>
+  <si>
+    <t>RPMMin</t>
+  </si>
+  <si>
+    <t>RPMNom</t>
+  </si>
+  <si>
+    <t>RPMMax</t>
+  </si>
+  <si>
+    <t>RPMs when ngine is Idle
+(it may end up in being different as Il-2 will consider also the other parameters)</t>
+  </si>
+  <si>
+    <t>Nominal RPM value used for base calcutations
+(it may end up in being very different as Il-2 engine will consider also the other parameters)</t>
+  </si>
+  <si>
+    <t>Max (Critical) RPM allowed
+Passing this mark engine will overheat, progressively be damaged and ultimately die.</t>
+  </si>
+  <si>
+    <t>Should be the pace of changing propeller blades angle in secs.</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>Min RPM at which auto prop pitch starts to respond,it is miminum pitch below 1200rpm</t>
+  </si>
+  <si>
+    <t>Max RPM at which auto prop pitch reaches max pitch angle</t>
+  </si>
+  <si>
+    <t>PropPhiMin</t>
+  </si>
+  <si>
+    <t>PropPhiMax</t>
+  </si>
+  <si>
+    <t>Maximum angle of Propeller Blades in Degrees</t>
+  </si>
+  <si>
+    <t>Minium angle of Propeller Blades in Degrees</t>
+  </si>
+  <si>
+    <t>PropAoA0</t>
+  </si>
+  <si>
+    <t>Propeller Base Angle of Attack (0)</t>
+  </si>
+  <si>
+    <t>CompressorPMax</t>
+  </si>
+  <si>
+    <t>Maximum pressure Compressor can deliver (ATA)
+This value is used withAfterburner</t>
+  </si>
+  <si>
+    <t>Voptimal</t>
+  </si>
+  <si>
+    <t>Optimal Cruise speed (used by AI)
+It is the speed at whom the propeller have the best efficiency</t>
+  </si>
+  <si>
+    <t>Not sure, TE means Temperature Elevation
+If you raise this number (0.012 for example) temp increase faster</t>
+  </si>
+  <si>
+    <t>Speed at which Gear and Doors Blow Off</t>
+  </si>
+  <si>
+    <t>Seems to be the multiplier for power when applying WEP
+WEP with 110% throttle means 1.1*1.16*base hp</t>
+  </si>
+  <si>
+    <t>Seems to be the multiplier for power when moving the throttle from 100% to 110%
+Set at 1.1 in most of Engines (110% Power)</t>
+  </si>
+  <si>
+    <t>Max time you can run the engine at max RPM without overheating</t>
+  </si>
+  <si>
+    <t>Stock: Scheme1.class, typical fighters</t>
+  </si>
+  <si>
+    <t>Stock: Scheme2.class, twin engined like B-25</t>
+  </si>
+  <si>
+    <t>Stock: Scheme3.class, only FW_189A2</t>
+  </si>
+  <si>
+    <t>Stock: Scheme4.class, heavy 4 engined: B-17, Fw-200, Pe-8...</t>
+  </si>
+  <si>
+    <t>Stock: Scheme0.class, gliders like G_11/ME_321</t>
+  </si>
+  <si>
+    <t>Stock: Scheme5.class, towing one He-111Z</t>
+  </si>
+  <si>
+    <t>Stock: Scheme7.class, six engined ones, only Me-323</t>
+  </si>
+  <si>
+    <t>Stock: Scheme6.class, three engined ones like Ju-52 or Sm-79</t>
+  </si>
+  <si>
+    <t>Physical Structure of the Aircraft</t>
+  </si>
+  <si>
+    <t>[Controls]</t>
+  </si>
+  <si>
+    <t>Most controls here toggles functionality on or off. 1 is always on, 0 always off. If you get a setting here wrong, you may experience your plane is impossible to crash (freezes above the ground)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2638,6 +3112,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2741,7 +3263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2782,6 +3304,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3089,10 +3627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH225"/>
+  <dimension ref="A1:BH229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,7 +3646,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -3119,25 +3657,25 @@
     </row>
     <row r="2" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -3159,13 +3697,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="D4" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="E4" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3177,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>638</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -3187,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>639</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -3196,7 +3734,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>640</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -3207,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>641</v>
+        <v>881</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -3296,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>642</v>
+        <v>882</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -3385,7 +3923,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>643</v>
+        <v>884</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -3474,7 +4012,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>644</v>
+        <v>886</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3563,7 +4101,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>645</v>
+        <v>885</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -3652,10 +4190,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="D13" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3669,10 +4207,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2">
         <v>9918</v>
@@ -3686,10 +4224,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2">
         <v>8851</v>
@@ -3703,40 +4241,13 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="D16" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="E16" t="s">
-        <v>660</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" t="s">
-        <v>32</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3744,10 +4255,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3758,16 +4269,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="D18" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="E18" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3778,16 +4289,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="D19" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="E19" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3801,16 +4312,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="D21" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3819,7 +4330,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3827,16 +4338,16 @@
         <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="D23" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -3849,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3860,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3871,7 +4382,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3882,7 +4393,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3893,7 +4404,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3904,7 +4415,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3915,7 +4426,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3926,7 +4437,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3937,7 +4448,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
@@ -3946,7 +4457,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
@@ -3955,7 +4466,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
@@ -3964,7 +4475,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
@@ -3981,37 +4492,37 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
         <v>51</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>52</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>53</v>
-      </c>
-      <c r="H38" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" t="s">
-        <v>55</v>
       </c>
       <c r="J38">
         <v>90</v>
       </c>
       <c r="K38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" t="s">
         <v>56</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>57</v>
       </c>
-      <c r="M38" t="s">
+      <c r="O38" t="s">
         <v>58</v>
-      </c>
-      <c r="N38" t="s">
-        <v>59</v>
-      </c>
-      <c r="O38" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
@@ -4019,10 +4530,10 @@
         <v>11</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.25">
@@ -4030,10 +4541,10 @@
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.25">
@@ -4041,16 +4552,16 @@
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
         <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I41" t="s">
         <v>16</v>
@@ -4059,52 +4570,52 @@
         <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L41" t="s">
         <v>18</v>
       </c>
       <c r="M41" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41" t="s">
+        <v>68</v>
+      </c>
+      <c r="O41" t="s">
         <v>69</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" t="s">
         <v>70</v>
       </c>
-      <c r="O41" t="s">
-        <v>71</v>
-      </c>
-      <c r="P41" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>72</v>
-      </c>
       <c r="R41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S41" t="s">
         <v>19</v>
       </c>
       <c r="T41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s">
+        <v>72</v>
+      </c>
+      <c r="X41" t="s">
         <v>73</v>
       </c>
-      <c r="W41" t="s">
+      <c r="Y41" t="s">
         <v>74</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Z41" t="s">
         <v>75</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>77</v>
       </c>
       <c r="AA41" t="s">
         <v>15</v>
@@ -4113,233 +4624,160 @@
         <v>17</v>
       </c>
       <c r="AC41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF41" t="s">
         <v>15</v>
       </c>
       <c r="AG41" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s">
         <v>80</v>
       </c>
-      <c r="AH41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ41" t="s">
+      <c r="AL41" t="s">
         <v>81</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AM41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN41" t="s">
         <v>82</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="AO41" t="s">
         <v>83</v>
       </c>
-      <c r="AM41" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN41" t="s">
+      <c r="AP41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ41" t="s">
         <v>84</v>
       </c>
-      <c r="AO41" t="s">
+      <c r="AR41" t="s">
         <v>85</v>
       </c>
-      <c r="AP41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR41" t="s">
-        <v>87</v>
-      </c>
       <c r="AS41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AT41" t="s">
         <v>15</v>
       </c>
       <c r="AU41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW41" t="s">
         <v>88</v>
       </c>
-      <c r="AV41" t="s">
+      <c r="AX41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY41" t="s">
         <v>89</v>
       </c>
-      <c r="AW41" t="s">
+      <c r="AZ41" t="s">
         <v>90</v>
       </c>
-      <c r="AX41" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY41" t="s">
+      <c r="BA41" t="s">
         <v>91</v>
       </c>
-      <c r="AZ41" t="s">
+      <c r="BB41" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD41" t="s">
         <v>92</v>
       </c>
-      <c r="BA41" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB41" t="s">
+      <c r="BE41" t="s">
         <v>88</v>
-      </c>
-      <c r="BC41" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD41" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE41" t="s">
-        <v>90</v>
       </c>
       <c r="BF41" t="s">
         <v>17</v>
       </c>
       <c r="BG41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BH41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>888</v>
+      </c>
       <c r="B43" s="4"/>
+      <c r="C43" s="13" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" t="s">
         <v>98</v>
       </c>
-      <c r="G44" t="s">
+      <c r="C44" t="s">
+        <v>604</v>
+      </c>
+      <c r="D44" t="s">
+        <v>598</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H44" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" t="s">
-        <v>101</v>
-      </c>
-      <c r="J44" t="s">
-        <v>102</v>
-      </c>
-      <c r="K44" t="s">
-        <v>103</v>
-      </c>
-      <c r="L44" t="s">
-        <v>104</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O44" t="s">
-        <v>89</v>
-      </c>
-      <c r="P44" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q44">
+      <c r="C45" t="s">
+        <v>685</v>
+      </c>
+      <c r="D45" t="s">
+        <v>598</v>
+      </c>
+      <c r="F45">
         <v>0</v>
       </c>
-      <c r="R44" t="s">
-        <v>89</v>
-      </c>
-      <c r="S44" t="s">
-        <v>104</v>
-      </c>
-      <c r="T44" t="s">
-        <v>106</v>
-      </c>
-      <c r="U44" t="s">
-        <v>45</v>
-      </c>
-      <c r="V44" t="s">
-        <v>107</v>
-      </c>
-      <c r="W44" t="s">
-        <v>17</v>
-      </c>
-      <c r="X44" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="D46" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -4350,16 +4788,16 @@
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="D47" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.25">
@@ -4367,13 +4805,13 @@
         <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="D48" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4384,30 +4822,33 @@
         <v>11</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="D49" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" t="s">
-        <v>625</v>
-      </c>
-      <c r="D50" t="s">
-        <v>617</v>
+      <c r="B50" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>610</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4418,184 +4859,181 @@
         <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>714</v>
+        <v>608</v>
       </c>
       <c r="D51" t="s">
-        <v>617</v>
+        <v>679</v>
+      </c>
+      <c r="E51" t="s">
+        <v>732</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>629</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
+      <c r="A52" s="1"/>
+      <c r="B52" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="F52" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" t="s">
-        <v>627</v>
-      </c>
-      <c r="D53" t="s">
-        <v>706</v>
-      </c>
-      <c r="E53" t="s">
-        <v>760</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="18" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>753</v>
+        <v>726</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="F54" t="s">
-        <v>759</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="18" t="s">
-        <v>675</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+        <v>722</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="18" t="s">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>754</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="F56" t="s">
-        <v>758</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="18" t="s">
-        <v>750</v>
+        <v>669</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>757</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" t="s">
-        <v>758</v>
+        <v>671</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="D58" s="19"/>
+      <c r="B58" s="4"/>
+      <c r="D58" s="24">
+        <v>0</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="18" t="s">
-        <v>696</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>707</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>703</v>
+      <c r="B59" s="4"/>
+      <c r="D59" s="24">
+        <v>1</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="4"/>
       <c r="D60" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="4"/>
       <c r="D61" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="4"/>
       <c r="D62" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
-      <c r="D63" s="24">
-        <v>3</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>701</v>
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s">
+        <v>599</v>
+      </c>
+      <c r="D63" t="s">
+        <v>623</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
-      <c r="D64" s="24">
-        <v>4</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>702</v>
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>599</v>
+      </c>
+      <c r="D64" t="s">
+        <v>623</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4603,16 +5041,16 @@
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="D65" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4620,13 +5058,13 @@
         <v>11</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="D66" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4637,13 +5075,13 @@
         <v>11</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="D67" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -4654,16 +5092,52 @@
         <v>11</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="D68" t="s">
-        <v>650</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
+        <v>623</v>
+      </c>
+      <c r="F68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" t="s">
+        <v>95</v>
+      </c>
+      <c r="H68" t="s">
+        <v>113</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>114</v>
+      </c>
+      <c r="K68" t="s">
+        <v>115</v>
+      </c>
+      <c r="L68" t="s">
+        <v>15</v>
+      </c>
+      <c r="M68" t="s">
+        <v>116</v>
+      </c>
+      <c r="N68" t="s">
+        <v>117</v>
+      </c>
+      <c r="O68" t="s">
+        <v>118</v>
+      </c>
+      <c r="P68" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>119</v>
+      </c>
+      <c r="R68" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4671,16 +5145,16 @@
         <v>11</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>619</v>
+        <v>682</v>
       </c>
       <c r="D69" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -4688,52 +5162,16 @@
         <v>11</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>620</v>
+        <v>681</v>
       </c>
       <c r="D70" t="s">
-        <v>650</v>
-      </c>
-      <c r="F70" t="s">
-        <v>131</v>
-      </c>
-      <c r="G70" t="s">
-        <v>100</v>
-      </c>
-      <c r="H70" t="s">
-        <v>132</v>
-      </c>
-      <c r="I70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" t="s">
-        <v>133</v>
-      </c>
-      <c r="K70" t="s">
-        <v>134</v>
-      </c>
-      <c r="L70" t="s">
-        <v>15</v>
-      </c>
-      <c r="M70" t="s">
-        <v>135</v>
-      </c>
-      <c r="N70" t="s">
-        <v>136</v>
-      </c>
-      <c r="O70" t="s">
-        <v>137</v>
-      </c>
-      <c r="P70" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>138</v>
-      </c>
-      <c r="R70" t="s">
-        <v>139</v>
+        <v>623</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -4741,13 +5179,13 @@
         <v>11</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="D71" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4757,14 +5195,17 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" t="s">
-        <v>708</v>
-      </c>
-      <c r="D72" t="s">
-        <v>650</v>
+      <c r="B72" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>609</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4775,36 +5216,33 @@
         <v>11</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
-        <v>710</v>
-      </c>
-      <c r="D73" t="s">
-        <v>650</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
+        <v>688</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>621</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>628</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
+      <c r="B74" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" t="s">
+        <v>689</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -4812,16 +5250,16 @@
         <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -4829,82 +5267,67 @@
         <v>11</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>711</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" t="s">
-        <v>717</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" t="s">
-        <v>158</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="4"/>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" t="s">
-        <v>718</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" t="s">
-        <v>162</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" t="s">
+        <v>145</v>
+      </c>
+      <c r="G79" t="s">
+        <v>146</v>
+      </c>
+      <c r="H79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I79" t="s">
+        <v>147</v>
+      </c>
+      <c r="J79" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
-      </c>
-      <c r="G80" t="s">
-        <v>165</v>
-      </c>
-      <c r="H80" t="s">
-        <v>44</v>
-      </c>
-      <c r="I80" t="s">
-        <v>166</v>
-      </c>
-      <c r="J80" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -4912,13 +5335,13 @@
         <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -4926,13 +5349,13 @@
         <v>11</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -4940,13 +5363,13 @@
         <v>11</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -4954,13 +5377,28 @@
         <v>11</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="G84" t="s">
+        <v>158</v>
+      </c>
+      <c r="H84" t="s">
+        <v>159</v>
+      </c>
+      <c r="I84" t="s">
+        <v>160</v>
+      </c>
+      <c r="J84" t="s">
+        <v>161</v>
+      </c>
+      <c r="K84" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
@@ -4968,28 +5406,13 @@
         <v>11</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>176</v>
-      </c>
-      <c r="G85" t="s">
-        <v>177</v>
-      </c>
-      <c r="H85" t="s">
-        <v>178</v>
-      </c>
-      <c r="I85" t="s">
-        <v>179</v>
-      </c>
-      <c r="J85" t="s">
-        <v>180</v>
-      </c>
-      <c r="K85" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
@@ -4997,13 +5420,52 @@
         <v>11</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>183</v>
+        <v>166</v>
+      </c>
+      <c r="G86" t="s">
+        <v>167</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" t="s">
+        <v>168</v>
+      </c>
+      <c r="J86" t="s">
+        <v>169</v>
+      </c>
+      <c r="K86" t="s">
+        <v>170</v>
+      </c>
+      <c r="L86" t="s">
+        <v>171</v>
+      </c>
+      <c r="M86" t="s">
+        <v>172</v>
+      </c>
+      <c r="N86" t="s">
+        <v>173</v>
+      </c>
+      <c r="O86" t="s">
+        <v>18</v>
+      </c>
+      <c r="P86" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R86" t="s">
+        <v>21</v>
+      </c>
+      <c r="S86" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -5011,52 +5473,64 @@
         <v>11</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G87" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I87" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="J87" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="K87" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="L87" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="M87" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="N87" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="O87" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>11</v>
       </c>
       <c r="R87" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="S87" t="s">
-        <v>163</v>
+        <v>11</v>
+      </c>
+      <c r="T87" t="s">
+        <v>11</v>
+      </c>
+      <c r="U87" t="s">
+        <v>11</v>
+      </c>
+      <c r="V87" t="s">
+        <v>11</v>
+      </c>
+      <c r="W87" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
@@ -5064,64 +5538,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F88" t="s">
-        <v>194</v>
-      </c>
-      <c r="G88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88" t="s">
-        <v>11</v>
-      </c>
-      <c r="J88" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" t="s">
-        <v>11</v>
-      </c>
-      <c r="L88" t="s">
-        <v>11</v>
-      </c>
-      <c r="M88" t="s">
-        <v>11</v>
-      </c>
-      <c r="N88" t="s">
-        <v>11</v>
-      </c>
-      <c r="O88" t="s">
-        <v>11</v>
-      </c>
-      <c r="P88" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>11</v>
-      </c>
-      <c r="R88" t="s">
-        <v>11</v>
-      </c>
-      <c r="S88" t="s">
-        <v>11</v>
-      </c>
-      <c r="T88" t="s">
-        <v>11</v>
-      </c>
-      <c r="U88" t="s">
-        <v>11</v>
-      </c>
-      <c r="V88" t="s">
-        <v>11</v>
-      </c>
-      <c r="W88" t="s">
-        <v>195</v>
+        <v>30</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2605</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -5129,76 +5552,67 @@
         <v>11</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F89" s="2">
-        <v>2605</v>
+        <v>30</v>
+      </c>
+      <c r="F89" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" t="s">
+        <v>11</v>
+      </c>
+      <c r="N89" t="s">
+        <v>11</v>
+      </c>
+      <c r="O89" t="s">
+        <v>11</v>
+      </c>
+      <c r="P89" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>11</v>
+      </c>
+      <c r="R89" t="s">
+        <v>11</v>
+      </c>
+      <c r="S89" t="s">
+        <v>11</v>
+      </c>
+      <c r="T89" t="s">
+        <v>11</v>
+      </c>
+      <c r="U89" t="s">
+        <v>180</v>
+      </c>
+      <c r="V89" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" t="s">
-        <v>198</v>
-      </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" t="s">
-        <v>11</v>
-      </c>
-      <c r="L90" t="s">
-        <v>11</v>
-      </c>
-      <c r="M90" t="s">
-        <v>11</v>
-      </c>
-      <c r="N90" t="s">
-        <v>11</v>
-      </c>
-      <c r="O90" t="s">
-        <v>11</v>
-      </c>
-      <c r="P90" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>11</v>
-      </c>
-      <c r="R90" t="s">
-        <v>11</v>
-      </c>
-      <c r="S90" t="s">
-        <v>11</v>
-      </c>
-      <c r="T90" t="s">
-        <v>11</v>
-      </c>
-      <c r="U90" t="s">
-        <v>199</v>
-      </c>
-      <c r="V90" t="s">
-        <v>11</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="4"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -5211,13 +5625,13 @@
         <v>11</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
@@ -5225,13 +5639,13 @@
         <v>11</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
@@ -5239,13 +5653,13 @@
         <v>11</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
@@ -5253,13 +5667,13 @@
         <v>11</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
@@ -5267,13 +5681,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
@@ -5281,13 +5695,13 @@
         <v>11</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
@@ -5295,13 +5709,13 @@
         <v>11</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
@@ -5309,13 +5723,13 @@
         <v>11</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" t="s">
         <v>188</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F99" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
@@ -5323,13 +5737,13 @@
         <v>11</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
@@ -5337,13 +5751,17 @@
         <v>11</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
+      </c>
+      <c r="C101" t="s">
+        <v>733</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E101" s="1"/>
       <c r="F101" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="G101" t="s">
         <v>15</v>
@@ -5352,70 +5770,70 @@
         <v>17</v>
       </c>
       <c r="I101" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="J101" t="s">
         <v>21</v>
       </c>
       <c r="K101" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="L101" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="M101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N101" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="O101" t="s">
         <v>17</v>
       </c>
       <c r="P101" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q101" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="R101" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="S101" t="s">
         <v>18</v>
       </c>
       <c r="T101" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="U101" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="V101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W101" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="X101" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="Y101" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="Z101" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AA101" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="AB101" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="AC101" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="AD101" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
@@ -5423,76 +5841,76 @@
         <v>11</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="G102" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H102" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J102" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="K102" t="s">
         <v>21</v>
       </c>
       <c r="L102" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="M102" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="N102" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O102" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="P102" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q102" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="R102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S102" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="T102" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="U102" t="s">
+        <v>196</v>
+      </c>
+      <c r="V102" t="s">
+        <v>27</v>
+      </c>
+      <c r="W102" t="s">
+        <v>214</v>
+      </c>
+      <c r="X102" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y102" t="s">
         <v>215</v>
       </c>
-      <c r="V102" t="s">
-        <v>29</v>
-      </c>
-      <c r="W102" t="s">
-        <v>233</v>
-      </c>
-      <c r="X102" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y102" t="s">
-        <v>234</v>
-      </c>
       <c r="Z102" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="AA102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.25">
@@ -5500,13 +5918,13 @@
         <v>11</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G103" t="s">
         <v>11</v>
@@ -5527,34 +5945,34 @@
         <v>11</v>
       </c>
       <c r="M103" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="N103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O103" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="P103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q103" t="s">
         <v>13</v>
       </c>
       <c r="R103" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="S103" t="s">
         <v>15</v>
       </c>
       <c r="T103" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="U103" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V103" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.25">
@@ -5565,19 +5983,19 @@
         <v>11</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
@@ -5585,37 +6003,37 @@
         <v>11</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H106" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="I106" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="J106" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="K106" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="L106" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="M106" t="s">
         <v>21</v>
       </c>
       <c r="N106" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.25">
@@ -5623,32 +6041,34 @@
         <v>11</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H107" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="I107" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="J107" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="K107" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
       <c r="B108" s="4"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -5661,10 +6081,10 @@
         <v>11</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F110">
         <v>100</v>
@@ -5675,10 +6095,10 @@
         <v>11</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F111">
         <v>100</v>
@@ -5689,13 +6109,13 @@
         <v>11</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C112" t="s">
-        <v>723</v>
+        <v>696</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F112">
         <v>500</v>
@@ -5706,13 +6126,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C113" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F113">
         <v>150</v>
@@ -5723,13 +6143,13 @@
         <v>11</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C114" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F114">
         <v>150</v>
@@ -5740,13 +6160,13 @@
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C115" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F115">
         <v>150</v>
@@ -5757,13 +6177,13 @@
         <v>11</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C116" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F116">
         <v>150</v>
@@ -5774,13 +6194,13 @@
         <v>11</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C117" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F117">
         <v>300</v>
@@ -5791,13 +6211,13 @@
         <v>11</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F118">
         <v>300</v>
@@ -5808,10 +6228,10 @@
         <v>11</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F119">
         <v>100</v>
@@ -5822,10 +6242,10 @@
         <v>11</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F120">
         <v>100</v>
@@ -5836,13 +6256,13 @@
         <v>11</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C121" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F121">
         <v>100</v>
@@ -5853,13 +6273,13 @@
         <v>11</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C122" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F122">
         <v>100</v>
@@ -5870,10 +6290,10 @@
         <v>11</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F123">
         <v>100</v>
@@ -5884,10 +6304,10 @@
         <v>11</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F124">
         <v>100</v>
@@ -5898,10 +6318,10 @@
         <v>11</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F125">
         <v>100</v>
@@ -5912,10 +6332,10 @@
         <v>11</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F126">
         <v>100</v>
@@ -5926,13 +6346,13 @@
         <v>11</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C127" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F127">
         <v>100</v>
@@ -5943,13 +6363,13 @@
         <v>11</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F128">
         <v>100</v>
@@ -5960,13 +6380,13 @@
         <v>11</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F129">
         <v>100</v>
@@ -5977,13 +6397,13 @@
         <v>11</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C130" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F130">
         <v>100</v>
@@ -5994,13 +6414,13 @@
         <v>11</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C131" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F131">
         <v>100</v>
@@ -6011,13 +6431,13 @@
         <v>11</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C132" t="s">
-        <v>733</v>
+        <v>706</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F132">
         <v>100</v>
@@ -6028,13 +6448,13 @@
         <v>11</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>734</v>
+        <v>707</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F133">
         <v>100</v>
@@ -6045,13 +6465,13 @@
         <v>11</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C134" t="s">
-        <v>735</v>
+        <v>708</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F134">
         <v>100</v>
@@ -6062,10 +6482,10 @@
         <v>11</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F135">
         <v>100</v>
@@ -6076,10 +6496,10 @@
         <v>11</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F136">
         <v>100</v>
@@ -6090,10 +6510,10 @@
         <v>11</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F137">
         <v>100</v>
@@ -6104,10 +6524,10 @@
         <v>11</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F138">
         <v>100</v>
@@ -6118,10 +6538,10 @@
         <v>11</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F139">
         <v>100</v>
@@ -6132,10 +6552,10 @@
         <v>11</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F140">
         <v>100</v>
@@ -6146,10 +6566,10 @@
         <v>11</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F141">
         <v>100</v>
@@ -6160,10 +6580,10 @@
         <v>11</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F142">
         <v>100</v>
@@ -6174,10 +6594,10 @@
         <v>11</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F143">
         <v>100</v>
@@ -6188,854 +6608,730 @@
         <v>11</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F144">
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F145">
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F146">
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="4"/>
+      <c r="D147" s="10"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B147" s="4"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C149" t="s">
+        <v>661</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="E149" t="s">
+        <v>665</v>
+      </c>
+      <c r="F149" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C150" t="s">
+        <v>663</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="E150" t="s">
+        <v>664</v>
+      </c>
+      <c r="F150" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="4"/>
+      <c r="D151" s="10"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C153" t="s">
+        <v>634</v>
+      </c>
+      <c r="D153" t="s">
+        <v>623</v>
+      </c>
+      <c r="E153" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C154" t="s">
+        <v>627</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" t="s">
+        <v>631</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1663372</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C155" t="s">
+        <v>628</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" t="s">
+        <v>631</v>
+      </c>
+      <c r="F155" s="2">
+        <v>12850</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C156" t="s">
+        <v>629</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F156" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="4"/>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4"/>
+      <c r="D160" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F161" t="s">
+        <v>281</v>
+      </c>
+      <c r="G161" t="s">
+        <v>282</v>
+      </c>
+      <c r="H161" t="s">
+        <v>283</v>
+      </c>
+      <c r="I161" t="s">
+        <v>170</v>
+      </c>
+      <c r="J161" t="s">
+        <v>284</v>
+      </c>
+      <c r="K161" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F162" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F163" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F164" t="s">
         <v>291</v>
       </c>
-      <c r="C148" t="s">
-        <v>688</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="E148" t="s">
-        <v>692</v>
-      </c>
-      <c r="F148" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B149" s="4" t="s">
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F165" t="s">
         <v>293</v>
       </c>
-      <c r="C149" t="s">
-        <v>690</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="E149" t="s">
-        <v>691</v>
-      </c>
-      <c r="F149" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="4"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="C151" t="s">
-        <v>661</v>
-      </c>
-      <c r="D151" t="s">
-        <v>650</v>
-      </c>
-      <c r="E151" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B152" s="4" t="s">
+      <c r="G165" t="s">
+        <v>282</v>
+      </c>
+      <c r="H165" t="s">
+        <v>283</v>
+      </c>
+      <c r="I165" t="s">
+        <v>170</v>
+      </c>
+      <c r="J165" t="s">
+        <v>284</v>
+      </c>
+      <c r="K165" t="s">
+        <v>285</v>
+      </c>
+      <c r="L165" t="s">
+        <v>79</v>
+      </c>
+      <c r="M165" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C152" t="s">
-        <v>654</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E152" t="s">
-        <v>658</v>
-      </c>
-      <c r="F152" s="2">
-        <v>1663372</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B153" s="4" t="s">
+      <c r="D166" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F166" t="s">
         <v>296</v>
       </c>
-      <c r="C153" t="s">
-        <v>655</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E153" t="s">
-        <v>658</v>
-      </c>
-      <c r="F153" s="2">
-        <v>12850</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="4" t="s">
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C154" t="s">
-        <v>656</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="D167" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F167" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="D155" s="10"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="D156" s="10"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4"/>
-      <c r="D157" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B158" s="4" t="s">
+      <c r="G167" t="s">
+        <v>133</v>
+      </c>
+      <c r="H167" t="s">
+        <v>160</v>
+      </c>
+      <c r="I167" t="s">
         <v>299</v>
       </c>
-      <c r="D158" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="J167" t="s">
         <v>300</v>
       </c>
-      <c r="G158" t="s">
+      <c r="K167" t="s">
+        <v>136</v>
+      </c>
+      <c r="L167" t="s">
+        <v>46</v>
+      </c>
+      <c r="M167" t="s">
         <v>301</v>
       </c>
-      <c r="H158" t="s">
+      <c r="N167" t="s">
         <v>302</v>
       </c>
-      <c r="I158" t="s">
-        <v>189</v>
-      </c>
-      <c r="J158" t="s">
+      <c r="O167" t="s">
         <v>303</v>
       </c>
-      <c r="K158" t="s">
+      <c r="P167" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q167" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B159" s="4" t="s">
+      <c r="R167" t="s">
+        <v>27</v>
+      </c>
+      <c r="S167" t="s">
         <v>305</v>
       </c>
-      <c r="D159" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="T167" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" s="4" t="s">
+      <c r="U167" t="s">
         <v>307</v>
       </c>
-      <c r="D160" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="V167" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" s="4" t="s">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D161" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="D168" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F168" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B162" s="4" t="s">
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" t="s">
+        <v>11</v>
+      </c>
+      <c r="I168" t="s">
+        <v>11</v>
+      </c>
+      <c r="J168" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D162" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="D169" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F169" t="s">
         <v>312</v>
       </c>
-      <c r="G162" t="s">
-        <v>301</v>
-      </c>
-      <c r="H162" t="s">
-        <v>302</v>
-      </c>
-      <c r="I162" t="s">
-        <v>189</v>
-      </c>
-      <c r="J162" t="s">
-        <v>303</v>
-      </c>
-      <c r="K162" t="s">
-        <v>304</v>
-      </c>
-      <c r="L162" t="s">
-        <v>81</v>
-      </c>
-      <c r="M162" t="s">
+      <c r="G169" t="s">
+        <v>46</v>
+      </c>
+      <c r="H169" t="s">
+        <v>141</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B163" s="4" t="s">
+      <c r="K169" t="s">
         <v>314</v>
       </c>
-      <c r="D163" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="L169" t="s">
+        <v>21</v>
+      </c>
+      <c r="M169" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B164" s="4" t="s">
+      <c r="N169" t="s">
         <v>316</v>
       </c>
-      <c r="D164" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="O169" t="s">
         <v>317</v>
       </c>
-      <c r="G164" t="s">
-        <v>152</v>
-      </c>
-      <c r="H164" t="s">
-        <v>179</v>
-      </c>
-      <c r="I164" t="s">
+      <c r="P169" t="s">
         <v>318</v>
       </c>
-      <c r="J164" t="s">
+      <c r="Q169" t="s">
         <v>319</v>
       </c>
-      <c r="K164" t="s">
-        <v>155</v>
-      </c>
-      <c r="L164" t="s">
-        <v>48</v>
-      </c>
-      <c r="M164" t="s">
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="N164" t="s">
+      <c r="D170" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F170" t="s">
         <v>321</v>
       </c>
-      <c r="O164" t="s">
+      <c r="G170" t="s">
         <v>322</v>
       </c>
-      <c r="P164" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q164" t="s">
+      <c r="H170" t="s">
         <v>323</v>
       </c>
-      <c r="R164" t="s">
-        <v>29</v>
-      </c>
-      <c r="S164" t="s">
+      <c r="I170" t="s">
         <v>324</v>
       </c>
-      <c r="T164" t="s">
+      <c r="J170" t="s">
         <v>325</v>
       </c>
-      <c r="U164" t="s">
+      <c r="K170" t="s">
         <v>326</v>
       </c>
-      <c r="V164" t="s">
+      <c r="L170" t="s">
+        <v>203</v>
+      </c>
+      <c r="M170" t="s">
+        <v>146</v>
+      </c>
+      <c r="N170" t="s">
+        <v>128</v>
+      </c>
+      <c r="O170" t="s">
+        <v>86</v>
+      </c>
+      <c r="P170" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B165" s="4" t="s">
+      <c r="Q170" t="s">
+        <v>17</v>
+      </c>
+      <c r="R170" t="s">
         <v>328</v>
       </c>
-      <c r="D165" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="S170" t="s">
         <v>329</v>
       </c>
-      <c r="G165" t="s">
-        <v>11</v>
-      </c>
-      <c r="H165" t="s">
-        <v>11</v>
-      </c>
-      <c r="I165" t="s">
-        <v>11</v>
-      </c>
-      <c r="J165" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B166" s="4" t="s">
+      <c r="T170" t="s">
+        <v>17</v>
+      </c>
+      <c r="U170" t="s">
         <v>330</v>
       </c>
-      <c r="D166" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F166" t="s">
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G166" t="s">
-        <v>48</v>
-      </c>
-      <c r="H166" t="s">
-        <v>160</v>
-      </c>
-      <c r="I166" t="s">
-        <v>17</v>
-      </c>
-      <c r="J166" t="s">
+      <c r="D171" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171" t="s">
         <v>332</v>
       </c>
-      <c r="K166" t="s">
+      <c r="G171" t="s">
         <v>333</v>
       </c>
-      <c r="L166" t="s">
-        <v>21</v>
-      </c>
-      <c r="M166" t="s">
+      <c r="H171" t="s">
+        <v>38</v>
+      </c>
+      <c r="I171" t="s">
         <v>334</v>
       </c>
-      <c r="N166" t="s">
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="O166" t="s">
+      <c r="C172" t="s">
+        <v>875</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F172" t="s">
         <v>336</v>
       </c>
-      <c r="P166" t="s">
+      <c r="G172" t="s">
+        <v>333</v>
+      </c>
+      <c r="H172" t="s">
+        <v>42</v>
+      </c>
+      <c r="I172" t="s">
         <v>337</v>
       </c>
-      <c r="Q166" t="s">
+      <c r="J172" t="s">
+        <v>38</v>
+      </c>
+      <c r="K172" t="s">
+        <v>19</v>
+      </c>
+      <c r="L172" t="s">
+        <v>27</v>
+      </c>
+      <c r="M172" t="s">
+        <v>28</v>
+      </c>
+      <c r="N172" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B167" s="4" t="s">
+      <c r="O172" t="s">
         <v>339</v>
       </c>
-      <c r="D167" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="P172" t="s">
         <v>340</v>
       </c>
-      <c r="G167" t="s">
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H167" t="s">
+      <c r="D173" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F173" t="s">
         <v>342</v>
       </c>
-      <c r="I167" t="s">
+      <c r="G173" t="s">
+        <v>333</v>
+      </c>
+      <c r="H173" t="s">
+        <v>38</v>
+      </c>
+      <c r="I173" t="s">
         <v>343</v>
       </c>
-      <c r="J167" t="s">
+      <c r="J173" t="s">
         <v>344</v>
       </c>
-      <c r="K167" t="s">
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="L167" t="s">
-        <v>222</v>
-      </c>
-      <c r="M167" t="s">
-        <v>165</v>
-      </c>
-      <c r="N167" t="s">
-        <v>147</v>
-      </c>
-      <c r="O167" t="s">
+      <c r="D174" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174" t="s">
+        <v>346</v>
+      </c>
+      <c r="G174" t="s">
+        <v>347</v>
+      </c>
+      <c r="H174" t="s">
+        <v>35</v>
+      </c>
+      <c r="I174" t="s">
+        <v>348</v>
+      </c>
+      <c r="J174" t="s">
+        <v>349</v>
+      </c>
+      <c r="K174" t="s">
+        <v>350</v>
+      </c>
+      <c r="L174" t="s">
+        <v>20</v>
+      </c>
+      <c r="M174" t="s">
+        <v>351</v>
+      </c>
+      <c r="N174" t="s">
+        <v>352</v>
+      </c>
+      <c r="O174" t="s">
+        <v>18</v>
+      </c>
+      <c r="P174" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>36</v>
+      </c>
+      <c r="R174" t="s">
+        <v>45</v>
+      </c>
+      <c r="S174" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B175" s="4"/>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F176" t="s">
+        <v>355</v>
+      </c>
+      <c r="G176" t="s">
         <v>88</v>
       </c>
-      <c r="P167" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>17</v>
-      </c>
-      <c r="R167" t="s">
-        <v>347</v>
-      </c>
-      <c r="S167" t="s">
-        <v>348</v>
-      </c>
-      <c r="T167" t="s">
-        <v>17</v>
-      </c>
-      <c r="U167" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F168" t="s">
-        <v>351</v>
-      </c>
-      <c r="G168" t="s">
-        <v>352</v>
-      </c>
-      <c r="H168" t="s">
-        <v>40</v>
-      </c>
-      <c r="I168" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F169" t="s">
-        <v>355</v>
-      </c>
-      <c r="G169" t="s">
-        <v>352</v>
-      </c>
-      <c r="H169" t="s">
-        <v>44</v>
-      </c>
-      <c r="I169" t="s">
-        <v>356</v>
-      </c>
-      <c r="J169" t="s">
-        <v>40</v>
-      </c>
-      <c r="K169" t="s">
-        <v>19</v>
-      </c>
-      <c r="L169" t="s">
-        <v>29</v>
-      </c>
-      <c r="M169" t="s">
-        <v>30</v>
-      </c>
-      <c r="N169" t="s">
-        <v>357</v>
-      </c>
-      <c r="O169" t="s">
-        <v>358</v>
-      </c>
-      <c r="P169" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F170" t="s">
-        <v>361</v>
-      </c>
-      <c r="G170" t="s">
-        <v>352</v>
-      </c>
-      <c r="H170" t="s">
-        <v>40</v>
-      </c>
-      <c r="I170" t="s">
-        <v>362</v>
-      </c>
-      <c r="J170" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F171" t="s">
-        <v>365</v>
-      </c>
-      <c r="G171" t="s">
-        <v>366</v>
-      </c>
-      <c r="H171" t="s">
-        <v>37</v>
-      </c>
-      <c r="I171" t="s">
-        <v>367</v>
-      </c>
-      <c r="J171" t="s">
-        <v>368</v>
-      </c>
-      <c r="K171" t="s">
-        <v>369</v>
-      </c>
-      <c r="L171" t="s">
-        <v>20</v>
-      </c>
-      <c r="M171" t="s">
-        <v>370</v>
-      </c>
-      <c r="N171" t="s">
-        <v>371</v>
-      </c>
-      <c r="O171" t="s">
-        <v>18</v>
-      </c>
-      <c r="P171" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>38</v>
-      </c>
-      <c r="R171" t="s">
-        <v>47</v>
-      </c>
-      <c r="S171" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B172" s="4"/>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F173" t="s">
-        <v>374</v>
-      </c>
-      <c r="G173" t="s">
-        <v>90</v>
-      </c>
-      <c r="H173" t="s">
-        <v>115</v>
-      </c>
-      <c r="I173" t="s">
-        <v>85</v>
-      </c>
-      <c r="J173" t="s">
-        <v>81</v>
-      </c>
-      <c r="K173" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F174" t="s">
-        <v>376</v>
-      </c>
-      <c r="G174" t="s">
-        <v>90</v>
-      </c>
-      <c r="H174" t="s">
-        <v>115</v>
-      </c>
-      <c r="I174" t="s">
-        <v>85</v>
-      </c>
-      <c r="J174" t="s">
-        <v>81</v>
-      </c>
-      <c r="K174" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F175" t="s">
-        <v>378</v>
-      </c>
-      <c r="G175" t="s">
-        <v>379</v>
-      </c>
-      <c r="H175" t="s">
-        <v>39</v>
-      </c>
-      <c r="I175" t="s">
-        <v>21</v>
-      </c>
-      <c r="J175" t="s">
-        <v>380</v>
-      </c>
-      <c r="K175" t="s">
-        <v>381</v>
-      </c>
-      <c r="L175" t="s">
-        <v>382</v>
-      </c>
-      <c r="M175" t="s">
-        <v>383</v>
-      </c>
-      <c r="N175" t="s">
-        <v>384</v>
-      </c>
-      <c r="O175" t="s">
-        <v>385</v>
-      </c>
-      <c r="P175" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>387</v>
-      </c>
-      <c r="R175" t="s">
-        <v>48</v>
-      </c>
-      <c r="S175" t="s">
-        <v>43</v>
-      </c>
-      <c r="T175" t="s">
-        <v>388</v>
-      </c>
-      <c r="U175" t="s">
-        <v>379</v>
-      </c>
-      <c r="V175" t="s">
-        <v>389</v>
-      </c>
-      <c r="W175" t="s">
-        <v>44</v>
-      </c>
-      <c r="X175" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B176" s="4"/>
+      <c r="H176" t="s">
+        <v>97</v>
+      </c>
+      <c r="I176" t="s">
+        <v>83</v>
+      </c>
+      <c r="J176" t="s">
+        <v>79</v>
+      </c>
+      <c r="K176" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F177" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="G177" t="s">
-        <v>379</v>
+        <v>88</v>
       </c>
       <c r="H177" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I177" t="s">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="J177" t="s">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="K177" t="s">
-        <v>393</v>
-      </c>
-      <c r="L177" t="s">
-        <v>43</v>
-      </c>
-      <c r="M177" t="s">
-        <v>115</v>
-      </c>
-      <c r="N177" t="s">
-        <v>394</v>
-      </c>
-      <c r="O177" t="s">
-        <v>395</v>
-      </c>
-      <c r="P177" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>397</v>
-      </c>
-      <c r="R177" t="s">
-        <v>398</v>
-      </c>
-      <c r="S177" t="s">
-        <v>399</v>
-      </c>
-      <c r="T177" t="s">
-        <v>400</v>
-      </c>
-      <c r="U177" t="s">
-        <v>401</v>
-      </c>
-      <c r="V177" t="s">
-        <v>154</v>
-      </c>
-      <c r="W177" t="s">
-        <v>45</v>
-      </c>
-      <c r="X177" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y177" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.25">
@@ -7043,119 +7339,141 @@
         <v>11</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F178" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="G178" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="H178" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="I178" t="s">
-        <v>405</v>
+        <v>21</v>
       </c>
       <c r="J178" t="s">
-        <v>14</v>
+        <v>361</v>
       </c>
       <c r="K178" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="L178" t="s">
-        <v>407</v>
+        <v>363</v>
+      </c>
+      <c r="M178" t="s">
+        <v>364</v>
+      </c>
+      <c r="N178" t="s">
+        <v>365</v>
+      </c>
+      <c r="O178" t="s">
+        <v>366</v>
+      </c>
+      <c r="P178" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>368</v>
+      </c>
+      <c r="R178" t="s">
+        <v>46</v>
+      </c>
+      <c r="S178" t="s">
+        <v>41</v>
+      </c>
+      <c r="T178" t="s">
+        <v>369</v>
+      </c>
+      <c r="U178" t="s">
+        <v>360</v>
+      </c>
+      <c r="V178" t="s">
+        <v>370</v>
+      </c>
+      <c r="W178" t="s">
+        <v>42</v>
+      </c>
+      <c r="X178" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F179" t="s">
-        <v>409</v>
-      </c>
-      <c r="G179" t="s">
-        <v>410</v>
-      </c>
-      <c r="H179" t="s">
-        <v>411</v>
-      </c>
-      <c r="I179" t="s">
-        <v>412</v>
-      </c>
-      <c r="J179" t="s">
-        <v>413</v>
-      </c>
-      <c r="K179" t="s">
-        <v>414</v>
-      </c>
-      <c r="L179" t="s">
-        <v>20</v>
-      </c>
-      <c r="M179" t="s">
-        <v>415</v>
-      </c>
-      <c r="N179" t="s">
-        <v>416</v>
-      </c>
+      <c r="B179" s="4"/>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="G180" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H180" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="I180" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="J180" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="K180" t="s">
-        <v>18</v>
+        <v>374</v>
       </c>
       <c r="L180" t="s">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="M180" t="s">
-        <v>421</v>
+        <v>97</v>
       </c>
       <c r="N180" t="s">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="O180" t="s">
-        <v>48</v>
+        <v>376</v>
       </c>
       <c r="P180" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="Q180" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="R180" t="s">
-        <v>58</v>
+        <v>379</v>
+      </c>
+      <c r="S180" t="s">
+        <v>380</v>
+      </c>
+      <c r="T180" t="s">
+        <v>381</v>
+      </c>
+      <c r="U180" t="s">
+        <v>382</v>
+      </c>
+      <c r="V180" t="s">
+        <v>135</v>
+      </c>
+      <c r="W180" t="s">
+        <v>43</v>
+      </c>
+      <c r="X180" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.25">
@@ -7163,13 +7481,31 @@
         <v>11</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F181" t="s">
-        <v>425</v>
+        <v>384</v>
+      </c>
+      <c r="G181" t="s">
+        <v>385</v>
+      </c>
+      <c r="H181" t="s">
+        <v>131</v>
+      </c>
+      <c r="I181" t="s">
+        <v>386</v>
+      </c>
+      <c r="J181" t="s">
+        <v>14</v>
+      </c>
+      <c r="K181" t="s">
+        <v>387</v>
+      </c>
+      <c r="L181" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.25">
@@ -7177,13 +7513,37 @@
         <v>11</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F182" t="s">
-        <v>427</v>
+        <v>390</v>
+      </c>
+      <c r="G182" t="s">
+        <v>391</v>
+      </c>
+      <c r="H182" t="s">
+        <v>392</v>
+      </c>
+      <c r="I182" t="s">
+        <v>393</v>
+      </c>
+      <c r="J182" t="s">
+        <v>394</v>
+      </c>
+      <c r="K182" t="s">
+        <v>395</v>
+      </c>
+      <c r="L182" t="s">
+        <v>20</v>
+      </c>
+      <c r="M182" t="s">
+        <v>396</v>
+      </c>
+      <c r="N182" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.25">
@@ -7191,13 +7551,49 @@
         <v>11</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F183" t="s">
-        <v>429</v>
+        <v>399</v>
+      </c>
+      <c r="G183" t="s">
+        <v>16</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+      <c r="I183" t="s">
+        <v>400</v>
+      </c>
+      <c r="J183" t="s">
+        <v>401</v>
+      </c>
+      <c r="K183" t="s">
+        <v>18</v>
+      </c>
+      <c r="L183" t="s">
+        <v>299</v>
+      </c>
+      <c r="M183" t="s">
+        <v>402</v>
+      </c>
+      <c r="N183" t="s">
+        <v>136</v>
+      </c>
+      <c r="O183" t="s">
+        <v>46</v>
+      </c>
+      <c r="P183" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>404</v>
+      </c>
+      <c r="R183" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.25">
@@ -7205,13 +7601,13 @@
         <v>11</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F184" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.25">
@@ -7219,13 +7615,13 @@
         <v>11</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.25">
@@ -7233,13 +7629,13 @@
         <v>11</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F186" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.25">
@@ -7247,70 +7643,13 @@
         <v>11</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F187" t="s">
-        <v>437</v>
-      </c>
-      <c r="G187" t="s">
-        <v>15</v>
-      </c>
-      <c r="H187" t="s">
-        <v>17</v>
-      </c>
-      <c r="I187" t="s">
-        <v>438</v>
-      </c>
-      <c r="J187" t="s">
-        <v>439</v>
-      </c>
-      <c r="K187" t="s">
-        <v>440</v>
-      </c>
-      <c r="L187" t="s">
-        <v>441</v>
-      </c>
-      <c r="M187" t="s">
-        <v>18</v>
-      </c>
-      <c r="N187" t="s">
-        <v>442</v>
-      </c>
-      <c r="O187" t="s">
-        <v>443</v>
-      </c>
-      <c r="P187" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>445</v>
-      </c>
-      <c r="R187" t="s">
-        <v>446</v>
-      </c>
-      <c r="S187" t="s">
-        <v>44</v>
-      </c>
-      <c r="T187" t="s">
-        <v>447</v>
-      </c>
-      <c r="U187" t="s">
-        <v>40</v>
-      </c>
-      <c r="V187" t="s">
-        <v>19</v>
-      </c>
-      <c r="W187" t="s">
-        <v>434</v>
-      </c>
-      <c r="X187" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y187" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.25">
@@ -7318,85 +7657,13 @@
         <v>11</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>69</v>
+        <v>413</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F188" t="s">
-        <v>449</v>
-      </c>
-      <c r="G188" t="s">
-        <v>16</v>
-      </c>
-      <c r="H188" t="s">
-        <v>42</v>
-      </c>
-      <c r="I188" t="s">
-        <v>68</v>
-      </c>
-      <c r="J188" t="s">
-        <v>18</v>
-      </c>
-      <c r="K188" t="s">
-        <v>450</v>
-      </c>
-      <c r="L188" t="s">
-        <v>21</v>
-      </c>
-      <c r="M188" t="s">
-        <v>451</v>
-      </c>
-      <c r="N188" t="s">
-        <v>452</v>
-      </c>
-      <c r="O188" t="s">
-        <v>90</v>
-      </c>
-      <c r="P188" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>453</v>
-      </c>
-      <c r="R188" t="s">
-        <v>21</v>
-      </c>
-      <c r="S188" t="s">
-        <v>29</v>
-      </c>
-      <c r="T188" t="s">
-        <v>454</v>
-      </c>
-      <c r="U188" t="s">
-        <v>40</v>
-      </c>
-      <c r="V188" t="s">
-        <v>19</v>
-      </c>
-      <c r="W188" t="s">
-        <v>29</v>
-      </c>
-      <c r="X188" t="s">
-        <v>455</v>
-      </c>
-      <c r="Y188" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z188" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA188" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB188" t="s">
-        <v>457</v>
-      </c>
-      <c r="AC188" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD188" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.25">
@@ -7404,28 +7671,13 @@
         <v>11</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F189" t="s">
-        <v>460</v>
-      </c>
-      <c r="G189" t="s">
-        <v>15</v>
-      </c>
-      <c r="H189" t="s">
-        <v>74</v>
-      </c>
-      <c r="I189" t="s">
-        <v>399</v>
-      </c>
-      <c r="J189" t="s">
-        <v>461</v>
-      </c>
-      <c r="K189" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.25">
@@ -7433,58 +7685,70 @@
         <v>11</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F190" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="G190" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="H190" t="s">
+        <v>17</v>
+      </c>
+      <c r="I190" t="s">
+        <v>419</v>
+      </c>
+      <c r="J190" t="s">
+        <v>420</v>
+      </c>
+      <c r="K190" t="s">
+        <v>421</v>
+      </c>
+      <c r="L190" t="s">
+        <v>422</v>
+      </c>
+      <c r="M190" t="s">
         <v>18</v>
       </c>
-      <c r="I190" t="s">
-        <v>465</v>
-      </c>
-      <c r="J190" t="s">
-        <v>462</v>
-      </c>
-      <c r="K190" t="s">
-        <v>466</v>
-      </c>
-      <c r="L190" t="s">
-        <v>48</v>
-      </c>
-      <c r="M190" t="s">
-        <v>467</v>
-      </c>
       <c r="N190" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="O190" t="s">
-        <v>145</v>
+        <v>424</v>
       </c>
       <c r="P190" t="s">
-        <v>29</v>
+        <v>425</v>
       </c>
       <c r="Q190" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="R190" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="S190" t="s">
-        <v>471</v>
+        <v>42</v>
       </c>
       <c r="T190" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="U190" t="s">
-        <v>420</v>
+        <v>38</v>
+      </c>
+      <c r="V190" t="s">
+        <v>19</v>
+      </c>
+      <c r="W190" t="s">
+        <v>415</v>
+      </c>
+      <c r="X190" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.25">
@@ -7492,58 +7756,85 @@
         <v>11</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>472</v>
+        <v>67</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F191" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="G191" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H191" t="s">
+        <v>40</v>
+      </c>
+      <c r="I191" t="s">
+        <v>66</v>
+      </c>
+      <c r="J191" t="s">
         <v>18</v>
       </c>
-      <c r="I191" t="s">
-        <v>465</v>
-      </c>
-      <c r="J191" t="s">
-        <v>462</v>
-      </c>
       <c r="K191" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="L191" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M191" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="N191" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="O191" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="P191" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>434</v>
+      </c>
+      <c r="R191" t="s">
+        <v>21</v>
+      </c>
+      <c r="S191" t="s">
+        <v>27</v>
+      </c>
+      <c r="T191" t="s">
+        <v>435</v>
+      </c>
+      <c r="U191" t="s">
+        <v>38</v>
+      </c>
+      <c r="V191" t="s">
+        <v>19</v>
+      </c>
+      <c r="W191" t="s">
+        <v>27</v>
+      </c>
+      <c r="X191" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z191" t="s">
         <v>29</v>
       </c>
-      <c r="Q191" t="s">
-        <v>469</v>
-      </c>
-      <c r="R191" t="s">
-        <v>470</v>
-      </c>
-      <c r="S191" t="s">
-        <v>471</v>
-      </c>
-      <c r="T191" t="s">
-        <v>181</v>
-      </c>
-      <c r="U191" t="s">
-        <v>420</v>
+      <c r="AA191" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
@@ -7551,171 +7842,276 @@
         <v>11</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F192" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="G192" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="H192" t="s">
+        <v>72</v>
+      </c>
+      <c r="I192" t="s">
+        <v>380</v>
+      </c>
+      <c r="J192" t="s">
+        <v>442</v>
+      </c>
+      <c r="K192" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F193" t="s">
+        <v>445</v>
+      </c>
+      <c r="G193" t="s">
+        <v>200</v>
+      </c>
+      <c r="H193" t="s">
         <v>18</v>
       </c>
-      <c r="I192" t="s">
-        <v>465</v>
-      </c>
-      <c r="J192" t="s">
-        <v>462</v>
-      </c>
-      <c r="K192" t="s">
-        <v>466</v>
-      </c>
-      <c r="L192" t="s">
-        <v>48</v>
-      </c>
-      <c r="M192" t="s">
-        <v>467</v>
-      </c>
-      <c r="N192" t="s">
-        <v>468</v>
-      </c>
-      <c r="O192" t="s">
-        <v>145</v>
-      </c>
-      <c r="P192" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>469</v>
-      </c>
-      <c r="R192" t="s">
-        <v>470</v>
-      </c>
-      <c r="S192" t="s">
-        <v>471</v>
-      </c>
-      <c r="T192" t="s">
-        <v>181</v>
-      </c>
-      <c r="U192" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B193" s="4"/>
+      <c r="I193" t="s">
+        <v>446</v>
+      </c>
+      <c r="J193" t="s">
+        <v>443</v>
+      </c>
+      <c r="K193" t="s">
+        <v>447</v>
+      </c>
+      <c r="L193" t="s">
+        <v>46</v>
+      </c>
+      <c r="M193" t="s">
+        <v>448</v>
+      </c>
+      <c r="N193" t="s">
+        <v>449</v>
+      </c>
+      <c r="O193" t="s">
+        <v>126</v>
+      </c>
+      <c r="P193" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>450</v>
+      </c>
+      <c r="R193" t="s">
+        <v>451</v>
+      </c>
+      <c r="S193" t="s">
+        <v>452</v>
+      </c>
+      <c r="T193" t="s">
+        <v>162</v>
+      </c>
+      <c r="U193" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B194" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F194" t="s">
+        <v>454</v>
+      </c>
+      <c r="G194" t="s">
+        <v>200</v>
+      </c>
+      <c r="H194" t="s">
+        <v>18</v>
+      </c>
+      <c r="I194" t="s">
+        <v>446</v>
+      </c>
+      <c r="J194" t="s">
+        <v>443</v>
+      </c>
+      <c r="K194" t="s">
+        <v>447</v>
+      </c>
+      <c r="L194" t="s">
+        <v>46</v>
+      </c>
+      <c r="M194" t="s">
+        <v>448</v>
+      </c>
+      <c r="N194" t="s">
+        <v>449</v>
+      </c>
+      <c r="O194" t="s">
+        <v>126</v>
+      </c>
+      <c r="P194" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>450</v>
+      </c>
+      <c r="R194" t="s">
+        <v>451</v>
+      </c>
+      <c r="S194" t="s">
+        <v>452</v>
+      </c>
+      <c r="T194" t="s">
+        <v>162</v>
+      </c>
+      <c r="U194" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F195" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="G195" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="H195" t="s">
-        <v>478</v>
+        <v>18</v>
       </c>
       <c r="I195" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="J195" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="K195" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="L195" t="s">
-        <v>382</v>
+        <v>46</v>
       </c>
       <c r="M195" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="N195" t="s">
-        <v>40</v>
+        <v>449</v>
       </c>
       <c r="O195" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="P195" t="s">
-        <v>483</v>
+        <v>27</v>
       </c>
       <c r="Q195" t="s">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="R195" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="S195" t="s">
-        <v>18</v>
+        <v>452</v>
       </c>
       <c r="T195" t="s">
-        <v>485</v>
+        <v>162</v>
       </c>
       <c r="U195" t="s">
-        <v>156</v>
-      </c>
-      <c r="V195" t="s">
-        <v>486</v>
+        <v>401</v>
       </c>
     </row>
     <row r="196" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F196" t="s">
-        <v>488</v>
-      </c>
+      <c r="B196" s="4"/>
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D197" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F197" t="s">
-        <v>490</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B197" s="4"/>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F198" t="s">
-        <v>492</v>
+        <v>458</v>
+      </c>
+      <c r="G198" t="s">
+        <v>15</v>
+      </c>
+      <c r="H198" t="s">
+        <v>459</v>
+      </c>
+      <c r="I198" t="s">
+        <v>460</v>
+      </c>
+      <c r="J198" t="s">
+        <v>461</v>
+      </c>
+      <c r="K198" t="s">
+        <v>462</v>
+      </c>
+      <c r="L198" t="s">
+        <v>363</v>
+      </c>
+      <c r="M198" t="s">
+        <v>463</v>
+      </c>
+      <c r="N198" t="s">
+        <v>38</v>
+      </c>
+      <c r="O198" t="s">
+        <v>17</v>
+      </c>
+      <c r="P198" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>88</v>
+      </c>
+      <c r="R198" t="s">
+        <v>465</v>
+      </c>
+      <c r="S198" t="s">
+        <v>18</v>
+      </c>
+      <c r="T198" t="s">
+        <v>466</v>
+      </c>
+      <c r="U198" t="s">
+        <v>137</v>
+      </c>
+      <c r="V198" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.25">
@@ -7723,13 +8119,13 @@
         <v>11</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F199" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200" spans="1:29" x14ac:dyDescent="0.25">
@@ -7737,13 +8133,16 @@
         <v>11</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>495</v>
+        <v>470</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F200" s="2">
-        <v>1452</v>
+        <v>30</v>
+      </c>
+      <c r="F200" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.25">
@@ -7751,79 +8150,13 @@
         <v>11</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F201" t="s">
-        <v>497</v>
-      </c>
-      <c r="G201" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201" t="s">
-        <v>498</v>
-      </c>
-      <c r="I201" t="s">
-        <v>467</v>
-      </c>
-      <c r="J201" t="s">
-        <v>219</v>
-      </c>
-      <c r="K201" t="s">
-        <v>18</v>
-      </c>
-      <c r="L201" t="s">
-        <v>302</v>
-      </c>
-      <c r="M201" t="s">
-        <v>43</v>
-      </c>
-      <c r="N201" t="s">
-        <v>499</v>
-      </c>
-      <c r="O201" t="s">
-        <v>43</v>
-      </c>
-      <c r="P201" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q201" t="s">
-        <v>501</v>
-      </c>
-      <c r="R201" t="s">
-        <v>502</v>
-      </c>
-      <c r="S201" t="s">
-        <v>414</v>
-      </c>
-      <c r="T201" t="s">
-        <v>20</v>
-      </c>
-      <c r="U201" t="s">
-        <v>416</v>
-      </c>
-      <c r="V201" t="s">
-        <v>43</v>
-      </c>
-      <c r="W201" t="s">
-        <v>503</v>
-      </c>
-      <c r="X201" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y201" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z201" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA201" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB201" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.25">
@@ -7831,49 +8164,13 @@
         <v>11</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F202" t="s">
-        <v>509</v>
-      </c>
-      <c r="G202" t="s">
-        <v>11</v>
-      </c>
-      <c r="H202" t="s">
-        <v>11</v>
-      </c>
-      <c r="I202" t="s">
-        <v>510</v>
-      </c>
-      <c r="J202" t="s">
-        <v>511</v>
-      </c>
-      <c r="K202" t="s">
-        <v>43</v>
-      </c>
-      <c r="L202" t="s">
-        <v>512</v>
-      </c>
-      <c r="M202" t="s">
-        <v>513</v>
-      </c>
-      <c r="N202" t="s">
-        <v>514</v>
-      </c>
-      <c r="O202" t="s">
-        <v>18</v>
-      </c>
-      <c r="P202" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q202" t="s">
-        <v>443</v>
-      </c>
-      <c r="R202" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" spans="1:29" x14ac:dyDescent="0.25">
@@ -7881,99 +8178,143 @@
         <v>11</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F203" t="s">
-        <v>517</v>
-      </c>
-      <c r="G203" t="s">
-        <v>518</v>
-      </c>
-      <c r="H203" t="s">
-        <v>59</v>
-      </c>
-      <c r="I203" t="s">
-        <v>519</v>
-      </c>
-      <c r="J203" t="s">
-        <v>15</v>
-      </c>
-      <c r="K203" t="s">
-        <v>520</v>
-      </c>
-      <c r="L203" t="s">
-        <v>521</v>
-      </c>
-      <c r="M203" t="s">
-        <v>420</v>
-      </c>
-      <c r="N203" t="s">
-        <v>522</v>
-      </c>
-      <c r="O203" t="s">
-        <v>382</v>
-      </c>
-      <c r="P203" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q203" t="s">
-        <v>523</v>
-      </c>
-      <c r="R203" t="s">
-        <v>524</v>
-      </c>
-      <c r="S203" t="s">
+        <v>30</v>
+      </c>
+      <c r="F203" s="2">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F204" t="s">
+        <v>478</v>
+      </c>
+      <c r="G204" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" t="s">
+        <v>479</v>
+      </c>
+      <c r="I204" t="s">
+        <v>448</v>
+      </c>
+      <c r="J204" t="s">
+        <v>200</v>
+      </c>
+      <c r="K204" t="s">
         <v>18</v>
       </c>
-      <c r="T203" t="s">
-        <v>525</v>
-      </c>
-      <c r="U203" t="s">
-        <v>42</v>
-      </c>
-      <c r="V203" t="s">
-        <v>526</v>
-      </c>
-      <c r="W203" t="s">
-        <v>17</v>
-      </c>
-      <c r="X203" t="s">
-        <v>527</v>
-      </c>
-      <c r="Y203" t="s">
-        <v>528</v>
-      </c>
-      <c r="Z203" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA203" t="s">
-        <v>504</v>
-      </c>
-      <c r="AB203" t="s">
-        <v>506</v>
-      </c>
-      <c r="AC203" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B204" s="4"/>
+      <c r="L204" t="s">
+        <v>283</v>
+      </c>
+      <c r="M204" t="s">
+        <v>41</v>
+      </c>
+      <c r="N204" t="s">
+        <v>480</v>
+      </c>
+      <c r="O204" t="s">
+        <v>41</v>
+      </c>
+      <c r="P204" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>482</v>
+      </c>
+      <c r="R204" t="s">
+        <v>483</v>
+      </c>
+      <c r="S204" t="s">
+        <v>395</v>
+      </c>
+      <c r="T204" t="s">
+        <v>20</v>
+      </c>
+      <c r="U204" t="s">
+        <v>397</v>
+      </c>
+      <c r="V204" t="s">
+        <v>41</v>
+      </c>
+      <c r="W204" t="s">
+        <v>484</v>
+      </c>
+      <c r="X204" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F205" t="s">
-        <v>531</v>
+        <v>490</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" t="s">
+        <v>11</v>
+      </c>
+      <c r="I205" t="s">
+        <v>491</v>
+      </c>
+      <c r="J205" t="s">
+        <v>492</v>
+      </c>
+      <c r="K205" t="s">
+        <v>41</v>
+      </c>
+      <c r="L205" t="s">
+        <v>493</v>
+      </c>
+      <c r="M205" t="s">
+        <v>494</v>
+      </c>
+      <c r="N205" t="s">
+        <v>495</v>
+      </c>
+      <c r="O205" t="s">
+        <v>18</v>
+      </c>
+      <c r="P205" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>424</v>
+      </c>
+      <c r="R205" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="206" spans="1:29" x14ac:dyDescent="0.25">
@@ -7981,41 +8322,99 @@
         <v>11</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>532</v>
+        <v>497</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F206" t="s">
-        <v>533</v>
+        <v>498</v>
+      </c>
+      <c r="G206" t="s">
+        <v>499</v>
+      </c>
+      <c r="H206" t="s">
+        <v>57</v>
+      </c>
+      <c r="I206" t="s">
+        <v>500</v>
+      </c>
+      <c r="J206" t="s">
+        <v>15</v>
+      </c>
+      <c r="K206" t="s">
+        <v>501</v>
+      </c>
+      <c r="L206" t="s">
+        <v>502</v>
+      </c>
+      <c r="M206" t="s">
+        <v>401</v>
+      </c>
+      <c r="N206" t="s">
+        <v>503</v>
+      </c>
+      <c r="O206" t="s">
+        <v>363</v>
+      </c>
+      <c r="P206" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>504</v>
+      </c>
+      <c r="R206" t="s">
+        <v>505</v>
+      </c>
+      <c r="S206" t="s">
+        <v>18</v>
+      </c>
+      <c r="T206" t="s">
+        <v>506</v>
+      </c>
+      <c r="U206" t="s">
+        <v>40</v>
+      </c>
+      <c r="V206" t="s">
+        <v>507</v>
+      </c>
+      <c r="W206" t="s">
+        <v>17</v>
+      </c>
+      <c r="X206" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="207" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F207" t="s">
-        <v>535</v>
-      </c>
+      <c r="B207" s="4"/>
     </row>
     <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F208" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
@@ -8023,13 +8422,13 @@
         <v>11</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F209" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
@@ -8037,13 +8436,13 @@
         <v>11</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F210" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
@@ -8051,49 +8450,13 @@
         <v>11</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F211" t="s">
-        <v>543</v>
-      </c>
-      <c r="G211" t="s">
-        <v>544</v>
-      </c>
-      <c r="H211" t="s">
-        <v>213</v>
-      </c>
-      <c r="I211" t="s">
-        <v>294</v>
-      </c>
-      <c r="J211" t="s">
-        <v>545</v>
-      </c>
-      <c r="K211" t="s">
-        <v>318</v>
-      </c>
-      <c r="L211" t="s">
-        <v>155</v>
-      </c>
-      <c r="M211" t="s">
-        <v>48</v>
-      </c>
-      <c r="N211" t="s">
-        <v>546</v>
-      </c>
-      <c r="O211" t="s">
-        <v>48</v>
-      </c>
-      <c r="P211" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>160</v>
-      </c>
-      <c r="R211" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
@@ -8101,73 +8464,13 @@
         <v>11</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F212" t="s">
-        <v>550</v>
-      </c>
-      <c r="G212" t="s">
-        <v>11</v>
-      </c>
-      <c r="H212" t="s">
-        <v>11</v>
-      </c>
-      <c r="I212" t="s">
-        <v>11</v>
-      </c>
-      <c r="J212" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" t="s">
-        <v>11</v>
-      </c>
-      <c r="L212" t="s">
-        <v>11</v>
-      </c>
-      <c r="M212" t="s">
-        <v>11</v>
-      </c>
-      <c r="N212" t="s">
-        <v>11</v>
-      </c>
-      <c r="O212" t="s">
-        <v>11</v>
-      </c>
-      <c r="P212" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>414</v>
-      </c>
-      <c r="R212" t="s">
-        <v>20</v>
-      </c>
-      <c r="S212" t="s">
-        <v>17</v>
-      </c>
-      <c r="T212" t="s">
-        <v>552</v>
-      </c>
-      <c r="U212" t="s">
-        <v>18</v>
-      </c>
-      <c r="V212" t="s">
-        <v>553</v>
-      </c>
-      <c r="W212" t="s">
-        <v>90</v>
-      </c>
-      <c r="X212" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y212" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
@@ -8175,13 +8478,13 @@
         <v>11</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F213" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
@@ -8189,13 +8492,49 @@
         <v>11</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F214" t="s">
-        <v>558</v>
+        <v>524</v>
+      </c>
+      <c r="G214" t="s">
+        <v>525</v>
+      </c>
+      <c r="H214" t="s">
+        <v>194</v>
+      </c>
+      <c r="I214" t="s">
+        <v>275</v>
+      </c>
+      <c r="J214" t="s">
+        <v>526</v>
+      </c>
+      <c r="K214" t="s">
+        <v>299</v>
+      </c>
+      <c r="L214" t="s">
+        <v>136</v>
+      </c>
+      <c r="M214" t="s">
+        <v>46</v>
+      </c>
+      <c r="N214" t="s">
+        <v>527</v>
+      </c>
+      <c r="O214" t="s">
+        <v>46</v>
+      </c>
+      <c r="P214" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>141</v>
+      </c>
+      <c r="R214" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
@@ -8203,13 +8542,73 @@
         <v>11</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F215" t="s">
-        <v>559</v>
+        <v>531</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" t="s">
+        <v>11</v>
+      </c>
+      <c r="I215" t="s">
+        <v>11</v>
+      </c>
+      <c r="J215" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" t="s">
+        <v>11</v>
+      </c>
+      <c r="L215" t="s">
+        <v>11</v>
+      </c>
+      <c r="M215" t="s">
+        <v>11</v>
+      </c>
+      <c r="N215" t="s">
+        <v>11</v>
+      </c>
+      <c r="O215" t="s">
+        <v>11</v>
+      </c>
+      <c r="P215" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>395</v>
+      </c>
+      <c r="R215" t="s">
+        <v>20</v>
+      </c>
+      <c r="S215" t="s">
+        <v>17</v>
+      </c>
+      <c r="T215" t="s">
+        <v>533</v>
+      </c>
+      <c r="U215" t="s">
+        <v>18</v>
+      </c>
+      <c r="V215" t="s">
+        <v>534</v>
+      </c>
+      <c r="W215" t="s">
+        <v>88</v>
+      </c>
+      <c r="X215" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
@@ -8217,13 +8616,13 @@
         <v>11</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F216" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
@@ -8231,36 +8630,41 @@
         <v>11</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D217" t="s">
-        <v>650</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
+        <v>538</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F217" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B218" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F218" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C219" t="s">
-        <v>683</v>
+        <v>541</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>653</v>
+        <v>30</v>
       </c>
       <c r="F219" t="s">
-        <v>687</v>
+        <v>542</v>
       </c>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
@@ -8268,71 +8672,121 @@
         <v>11</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C220" t="s">
-        <v>684</v>
-      </c>
-      <c r="D220" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="F220" t="s">
-        <v>565</v>
+        <v>543</v>
+      </c>
+      <c r="D220" t="s">
+        <v>623</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C221" t="s">
-        <v>685</v>
-      </c>
-      <c r="D221" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="E221" s="17" t="s">
-        <v>686</v>
-      </c>
-      <c r="F221" t="s">
-        <v>567</v>
-      </c>
+      <c r="A221" s="1"/>
+      <c r="B221" s="4"/>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="C222" t="s">
-        <v>682</v>
-      </c>
-      <c r="D222" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="4"/>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C223" t="s">
+        <v>656</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F223" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C224" t="s">
+        <v>657</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F224" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C225" t="s">
+        <v>658</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="E225" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="F225" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C226" t="s">
+        <v>655</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="E226" t="s">
+        <v>654</v>
+      </c>
+      <c r="F226" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227" s="16" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" s="16" t="s">
         <v>653</v>
       </c>
-      <c r="E222" t="s">
-        <v>681</v>
-      </c>
-      <c r="F222" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D223" s="16" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D224" s="16" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D225" s="16" t="s">
-        <v>569</v>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229" s="16" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -8346,25 +8800,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -8375,25 +8829,25 @@
     </row>
     <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8409,140 +8863,134 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" t="s">
+        <v>752</v>
+      </c>
       <c r="D4" s="10" t="s">
-        <v>653</v>
+        <v>626</v>
+      </c>
+      <c r="E4" t="s">
+        <v>753</v>
       </c>
       <c r="F4" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D5" t="s">
-        <v>650</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>743</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>744</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>745</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>574</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>736</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
+        <v>746</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>427</v>
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>755</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>577</v>
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>748</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>427</v>
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>749</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>742</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>580</v>
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>750</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>754</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>751</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>766</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8550,13 +8998,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>652</v>
+        <v>552</v>
+      </c>
+      <c r="C14" t="s">
+        <v>791</v>
+      </c>
+      <c r="D14" t="s">
+        <v>623</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>792</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8564,72 +9018,61 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>583</v>
+        <v>553</v>
+      </c>
+      <c r="C15" t="s">
+        <v>795</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F18">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>857</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="35" t="s">
+        <v>855</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>858</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="35" t="s">
+        <v>856</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>859</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="C19" t="s">
-        <v>737</v>
-      </c>
-      <c r="D19" t="s">
-        <v>650</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
+        <v>852</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8637,101 +9080,84 @@
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="E20" t="s">
+        <v>797</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>738</v>
       </c>
-      <c r="D20" t="s">
-        <v>650</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="C21" t="s">
-        <v>739</v>
-      </c>
-      <c r="D21" t="s">
-        <v>650</v>
-      </c>
-      <c r="F21">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D22" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C22" t="s">
-        <v>740</v>
-      </c>
-      <c r="D22" t="s">
-        <v>650</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C23" t="s">
-        <v>741</v>
-      </c>
-      <c r="D23" t="s">
-        <v>650</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D23" s="30">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="C24" t="s">
-        <v>742</v>
-      </c>
-      <c r="D24" t="s">
-        <v>650</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D24" s="30">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="C25" t="s">
-        <v>743</v>
-      </c>
-      <c r="D25" t="s">
-        <v>650</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E25" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8739,225 +9165,1229 @@
         <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C26" t="s">
+        <v>709</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="E26" t="s">
+        <v>757</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" t="s">
+        <v>758</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" t="s">
+        <v>759</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C29" t="s">
+        <v>850</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>877</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F31" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C33" t="s">
+        <v>851</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C34" t="s">
+        <v>800</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C35" t="s">
+        <v>799</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C36" t="s">
+        <v>769</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="E36" t="s">
+        <v>798</v>
+      </c>
+      <c r="F36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
+        <v>789</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" t="s">
+        <v>780</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" t="s">
+        <v>781</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
+        <v>782</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" t="s">
+        <v>783</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
+        <v>784</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>785</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" t="s">
+        <v>786</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" t="s">
+        <v>787</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" t="s">
+        <v>788</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C48" t="s">
+        <v>862</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C49" t="s">
+        <v>863</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="35" t="s">
+        <v>864</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>867</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>866</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>869</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C54" t="s">
+        <v>801</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C55" t="s">
+        <v>833</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C56" t="s">
+        <v>831</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="4"/>
+      <c r="C57" t="s">
+        <v>802</v>
+      </c>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="4"/>
+      <c r="C58" t="s">
+        <v>803</v>
+      </c>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="4"/>
+      <c r="C59" t="s">
+        <v>804</v>
+      </c>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="4"/>
+      <c r="C60" t="s">
+        <v>805</v>
+      </c>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C61" t="s">
+        <v>834</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="E61" t="s">
+        <v>836</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="C62" t="s">
+        <v>837</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="35" t="s">
+        <v>870</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>871</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C64" t="s">
+        <v>830</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C77" t="s">
+        <v>835</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F81">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C82" t="s">
+        <v>710</v>
+      </c>
+      <c r="D82" t="s">
+        <v>623</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C83" t="s">
+        <v>711</v>
+      </c>
+      <c r="D83" t="s">
+        <v>623</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C84" t="s">
+        <v>712</v>
+      </c>
+      <c r="D84" t="s">
+        <v>623</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C85" t="s">
+        <v>713</v>
+      </c>
+      <c r="D85" t="s">
+        <v>623</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C86" t="s">
+        <v>714</v>
+      </c>
+      <c r="D86" t="s">
+        <v>623</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C87" t="s">
+        <v>715</v>
+      </c>
+      <c r="D87" t="s">
+        <v>623</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C88" t="s">
+        <v>716</v>
+      </c>
+      <c r="D88" t="s">
+        <v>623</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C89" t="s">
+        <v>717</v>
+      </c>
+      <c r="D89" t="s">
+        <v>623</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>874</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F91">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F92">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F93">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F94">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F95">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F96">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C97" t="s">
+        <v>842</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F98">
+        <v>124</v>
+      </c>
+      <c r="H98" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" t="s">
+        <v>140</v>
+      </c>
+      <c r="J98" t="s">
+        <v>589</v>
+      </c>
+      <c r="K98" t="s">
+        <v>273</v>
+      </c>
+      <c r="L98" t="s">
+        <v>72</v>
+      </c>
+      <c r="M98" t="s">
+        <v>380</v>
+      </c>
+      <c r="N98" t="s">
+        <v>13</v>
+      </c>
+      <c r="O98" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F100" t="s">
+        <v>588</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F101" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F102" t="s">
         <v>594</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="104" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
         <v>744</v>
       </c>
-      <c r="D26" t="s">
-        <v>650</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F29">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F30">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F31">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F32">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F33">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F34">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F35">
-        <v>124</v>
-      </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" t="s">
-        <v>159</v>
-      </c>
-      <c r="J35" t="s">
-        <v>608</v>
-      </c>
-      <c r="K35" t="s">
-        <v>292</v>
-      </c>
-      <c r="L35" t="s">
-        <v>74</v>
-      </c>
-      <c r="M35" t="s">
-        <v>399</v>
-      </c>
-      <c r="N35" t="s">
-        <v>13</v>
-      </c>
-      <c r="O35" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="F37" t="s">
-        <v>607</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="F38" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="F39" t="s">
-        <v>613</v>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
